--- a/timetabling_GA/results/HK3_CT01_2025/LichHocKy_HK3_CT01_2025.xlsx
+++ b/timetabling_GA/results/HK3_CT01_2025/LichHocKy_HK3_CT01_2025.xlsx
@@ -85,14 +85,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BDD7EE"/>
-        <bgColor rgb="00BDD7EE"/>
+        <fgColor rgb="00FFCCCB"/>
+        <bgColor rgb="00FFCCCB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFCCCB"/>
-        <bgColor rgb="00FFCCCB"/>
+        <fgColor rgb="00BDD7EE"/>
+        <bgColor rgb="00BDD7EE"/>
       </patternFill>
     </fill>
   </fills>
@@ -181,10 +181,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -550,354 +550,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="25" customWidth="1" min="7" max="7"/>
-    <col width="25" customWidth="1" min="8" max="8"/>
-    <col width="25" customWidth="1" min="9" max="9"/>
-    <col width="25" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>WEEK 1 TIMETABLE (23/03/2026 - 29/03/2026)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="40" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>Students</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>Monday
-23/03</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>Tuesday
-24/03</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>Wednesday
-25/03</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>Thursday
-26/03</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="inlineStr">
-        <is>
-          <t>Friday
-27/03</t>
-        </is>
-      </c>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>Saturday
-28/03</t>
-        </is>
-      </c>
-      <c r="J7" s="5" t="inlineStr">
-        <is>
-          <t>Sunday
-29/03</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT4
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="I8" s="7" t="inlineStr"/>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: TH1
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT3
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: TH2
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>L01</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: TH2
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-      <c r="I12" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT4
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="J12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="9" t="n"/>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>L01</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
-      <c r="I13" s="7" t="inlineStr"/>
-      <c r="J13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
-      <c r="I14" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: TH2
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="J14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>L01</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="7" t="inlineStr"/>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT1
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="J15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16"/>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -942,7 +594,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 10 TIMETABLE (25/05/2026 - 31/05/2026)</t>
+          <t>WEEK 1 TIMETABLE (23/03/2026 - 29/03/2026)</t>
         </is>
       </c>
     </row>
@@ -965,50 +617,50 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-25/05</t>
+23/03</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-26/05</t>
+24/03</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-27/05</t>
+25/03</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-28/05</t>
+26/03</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-29/05</t>
+27/03</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-30/05</t>
+28/03</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-31/05</t>
+29/03</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1025,9 +677,9 @@
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>MH006
-(Theory)
-Room: LT4
+          <t>MH005
+(Practice)
+Room: TH1
 Lecturer: GV002</t>
         </is>
       </c>
@@ -1037,36 +689,29 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT3
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -1082,39 +727,36 @@
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT4
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT2
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="7" t="inlineStr"/>
+      <c r="I11" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Practice)
+Room: TH1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
@@ -1125,54 +767,39 @@
       </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT2
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
-      <c r="I12" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT1
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="I12" s="7" t="inlineStr"/>
       <c r="J12" s="7" t="inlineStr"/>
     </row>
     <row r="13"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1216,7 +843,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 11 TIMETABLE (01/06/2026 - 07/06/2026)</t>
+          <t>WEEK 10 TIMETABLE (25/05/2026 - 31/05/2026)</t>
         </is>
       </c>
     </row>
@@ -1239,43 +866,43 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-01/06</t>
+25/05</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-02/06</t>
+26/05</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-03/06</t>
+27/05</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-04/06</t>
+28/05</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-05/06</t>
+29/05</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-06/06</t>
+30/05</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-07/06</t>
+31/05</t>
         </is>
       </c>
     </row>
@@ -1287,31 +914,38 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT4
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1323,130 +957,101 @@
         <v>30</v>
       </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="7" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT3
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT4
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT2
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="inlineStr"/>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
       <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>L01</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT2
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-      <c r="I12" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT1
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="J12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13"/>
+    <row r="12"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1490,7 +1095,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 12 TIMETABLE (08/06/2026 - 14/06/2026)</t>
+          <t>WEEK 11 TIMETABLE (01/06/2026 - 07/06/2026)</t>
         </is>
       </c>
     </row>
@@ -1513,43 +1118,43 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-08/06</t>
+01/06</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-09/06</t>
+02/06</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-10/06</t>
+03/06</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-11/06</t>
+04/06</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-12/06</t>
+05/06</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-13/06</t>
+06/06</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-14/06</t>
+07/06</t>
         </is>
       </c>
     </row>
@@ -1561,31 +1166,38 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT4
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1597,130 +1209,101 @@
         <v>30</v>
       </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="7" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT3
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT4
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT2
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="inlineStr"/>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
       <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>L01</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT2
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-      <c r="I12" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT1
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="J12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13"/>
+    <row r="12"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1764,7 +1347,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 13 TIMETABLE (15/06/2026 - 21/06/2026)</t>
+          <t>WEEK 12 TIMETABLE (08/06/2026 - 14/06/2026)</t>
         </is>
       </c>
     </row>
@@ -1787,43 +1370,43 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-15/06</t>
+08/06</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-16/06</t>
+09/06</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-17/06</t>
+10/06</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-18/06</t>
+11/06</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-19/06</t>
+12/06</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-20/06</t>
+13/06</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-21/06</t>
+14/06</t>
         </is>
       </c>
     </row>
@@ -1835,31 +1418,38 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT4
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1871,130 +1461,101 @@
         <v>30</v>
       </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="7" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT3
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT4
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT2
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="inlineStr"/>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
       <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>L01</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT2
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-      <c r="I12" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT1
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="J12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13"/>
+    <row r="12"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2038,7 +1599,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 14 TIMETABLE (22/06/2026 - 28/06/2026)</t>
+          <t>WEEK 13 TIMETABLE (15/06/2026 - 21/06/2026)</t>
         </is>
       </c>
     </row>
@@ -2061,43 +1622,43 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-22/06</t>
+15/06</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-23/06</t>
+16/06</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-24/06</t>
+17/06</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-25/06</t>
+18/06</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-26/06</t>
+19/06</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-27/06</t>
+20/06</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-28/06</t>
+21/06</t>
         </is>
       </c>
     </row>
@@ -2109,31 +1670,38 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT4
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -2145,130 +1713,101 @@
         <v>30</v>
       </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="7" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT3
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT4
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT2
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="inlineStr"/>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
       <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>L01</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT2
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-      <c r="I12" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT1
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="J12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13"/>
+    <row r="12"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2312,7 +1851,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 15 TIMETABLE (29/06/2026 - 05/07/2026)</t>
+          <t>WEEK 14 TIMETABLE (22/06/2026 - 28/06/2026)</t>
         </is>
       </c>
     </row>
@@ -2335,43 +1874,43 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-29/06</t>
+22/06</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-30/06</t>
+23/06</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-01/07</t>
+24/06</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-02/07</t>
+25/06</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-03/07</t>
+26/06</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-04/07</t>
+27/06</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-05/07</t>
+28/06</t>
         </is>
       </c>
     </row>
@@ -2383,31 +1922,38 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT4
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -2419,130 +1965,101 @@
         <v>30</v>
       </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="7" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT3
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT4
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT2
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="inlineStr"/>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
       <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>L01</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT2
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-      <c r="I12" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT1
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="J12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13"/>
+    <row r="12"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2586,7 +2103,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 16 TIMETABLE (06/07/2026 - 12/07/2026)</t>
+          <t>WEEK 15 TIMETABLE (29/06/2026 - 05/07/2026)</t>
         </is>
       </c>
     </row>
@@ -2609,50 +2126,50 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-06/07</t>
+29/06</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-07/07</t>
+30/06</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-08/07</t>
+01/07</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-09/07</t>
+02/07</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-10/07</t>
+03/07</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-11/07</t>
+04/07</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-12/07</t>
+05/07</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2663,8 +2180,7 @@
       <c r="C8" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
+      <c r="D8" s="9" t="inlineStr">
         <is>
           <t>MH006
 (Theory)
@@ -2672,7 +2188,15 @@
 Lecturer: GV002</t>
         </is>
       </c>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
@@ -2681,24 +2205,24 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
+      <c r="E9" s="9" t="inlineStr">
         <is>
           <t>MH005
 (Theory)
 Room: LT2
-Lecturer: GV007</t>
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="F9" s="7" t="inlineStr"/>
@@ -2707,11 +2231,325 @@
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
-    <row r="10"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="10" t="n"/>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>L01</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>WEEK 16 TIMETABLE (06/07/2026 - 12/07/2026)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="40" customHeight="1">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Students</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Monday
+06/07</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>Tuesday
+07/07</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>Wednesday
+08/07</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>Thursday
+09/07</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>Friday
+10/07</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>Saturday
+11/07</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>Sunday
+12/07</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>L01</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="10" t="n"/>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>L01</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
   </mergeCells>
@@ -2835,7 +2673,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2852,9 +2690,9 @@
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>MH006
-(Theory)
-Room: LT4
+          <t>MH005
+(Practice)
+Room: TH1
 Lecturer: GV002</t>
         </is>
       </c>
@@ -2864,7 +2702,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -2876,65 +2714,58 @@
         <v>30</v>
       </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="7" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: TH3
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: TH3
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT3
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>MH005
-(Practice)
-Room: TH1
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
 Lecturer: GV002</t>
         </is>
       </c>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: TH3
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
           <t>L01</t>
@@ -2943,16 +2774,16 @@
       <c r="C11" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>MH006
-(Practice)
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
 Room: TH2
 Lecturer: GV002</t>
         </is>
       </c>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
       <c r="I11" s="7" t="inlineStr"/>
@@ -2973,22 +2804,29 @@
         <v>30</v>
       </c>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: TH3
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr">
         <is>
-          <t>MH005
-(Theory)
-Room: LT4
+          <t>MH006
+(Practice)
+Room: TH1
 Lecturer: GV002</t>
         </is>
       </c>
       <c r="J12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="9" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
           <t>L01</t>
@@ -2998,20 +2836,13 @@
         <v>35</v>
       </c>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="8" t="inlineStr">
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="9" t="inlineStr">
         <is>
           <t>MH006
 (Theory)
 Room: LT2
 Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="F13" s="10" t="inlineStr">
-        <is>
-          <t>MH005
-(Practice)
-Room: TH2
-Lecturer: GV007</t>
         </is>
       </c>
       <c r="G13" s="7" t="inlineStr"/>
@@ -3034,20 +2865,20 @@
         <v>30</v>
       </c>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>MH006
-(Practice)
-Room: TH1
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>MH005
-(Practice)
-Room: TH3
-Lecturer: GV002</t>
+      <c r="E14" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
         </is>
       </c>
       <c r="G14" s="7" t="inlineStr"/>
@@ -3056,7 +2887,7 @@
       <c r="J14" s="7" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="9" t="n"/>
+      <c r="A15" s="10" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
           <t>L01</t>
@@ -3065,26 +2896,26 @@
       <c r="C15" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT2
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH2
 Lecturer: GV007</t>
         </is>
       </c>
-      <c r="F15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: TH2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT1
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="I15" s="7" t="inlineStr"/>
       <c r="J15" s="7" t="inlineStr"/>
     </row>
     <row r="16"/>
@@ -3092,10 +2923,10 @@
   <mergeCells count="7">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3108,7 +2939,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3218,7 +3049,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -3235,9 +3066,9 @@
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>MH006
-(Theory)
-Room: LT4
+          <t>MH005
+(Practice)
+Room: TH1
 Lecturer: GV002</t>
         </is>
       </c>
@@ -3245,7 +3076,7 @@
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="9" t="n"/>
+      <c r="A9" s="10" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>L01</t>
@@ -3254,8 +3085,45 @@
       <c r="C9" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: TH2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: TH2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="9" t="inlineStr">
         <is>
           <t>MH005
 (Theory)
@@ -3263,50 +3131,13 @@
 Lecturer: GV007</t>
         </is>
       </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: TH2
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: TH3
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
           <t>L01</t>
@@ -3315,16 +3146,23 @@
       <c r="C11" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: TH2
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="inlineStr"/>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
       <c r="I11" s="7" t="inlineStr"/>
@@ -3333,26 +3171,26 @@
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>MH006
-(Practice)
-Room: TH2
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="E12" s="7" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: TH1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
@@ -3360,61 +3198,54 @@
       <c r="J12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C13" s="7" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
+      <c r="F13" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: TH2
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
-      <c r="I13" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT4
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="I13" s="7" t="inlineStr"/>
       <c r="J13" s="7" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="9" t="n"/>
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C14" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT2
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>MH005
-(Practice)
+      <c r="E14" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
 Room: TH2
 Lecturer: GV007</t>
         </is>
       </c>
+      <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
       <c r="I14" s="7" t="inlineStr"/>
@@ -3423,7 +3254,7 @@
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
@@ -3435,11 +3266,11 @@
         <v>30</v>
       </c>
       <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>MH006
-(Practice)
-Room: TH1
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
 Lecturer: GV002</t>
         </is>
       </c>
@@ -3448,16 +3279,16 @@
       <c r="H15" s="7" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr">
         <is>
-          <t>MH005
-(Theory)
-Room: TH2
+          <t>MH006
+(Practice)
+Room: TH1
 Lecturer: GV002</t>
         </is>
       </c>
       <c r="J15" s="7" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="9" t="n"/>
+      <c r="A16" s="10" t="n"/>
       <c r="B16" s="7" t="inlineStr">
         <is>
           <t>L01</t>
@@ -3467,34 +3298,96 @@
         <v>35</v>
       </c>
       <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: TH2
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="F16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr">
-        <is>
-          <t>MH006
+      <c r="I16" s="7" t="inlineStr"/>
+      <c r="J16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F17" s="9" t="inlineStr">
+        <is>
+          <t>MH005
 (Theory)
 Room: LT1
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="J16" s="7" t="inlineStr"/>
-    </row>
-    <row r="17"/>
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+      <c r="I17" s="7" t="inlineStr"/>
+      <c r="J17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>L01</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: TH2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
+      <c r="I18" s="7" t="inlineStr"/>
+      <c r="J18" s="7" t="inlineStr"/>
+    </row>
+    <row r="19"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A2:J2"/>
@@ -3510,7 +3403,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3632,25 +3525,25 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: TH2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>MH006
-(Theory)
-Room: TH3
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
+          <t>MH005
+(Practice)
 Room: TH1
 Lecturer: GV002</t>
         </is>
       </c>
+      <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
@@ -3661,47 +3554,58 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT4
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="H9" s="7" t="inlineStr"/>
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="9" t="n"/>
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: TH2
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: TH1
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
       <c r="I10" s="7" t="inlineStr"/>
@@ -3710,7 +3614,7 @@
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -3722,26 +3626,29 @@
         <v>30</v>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr">
         <is>
-          <t>MH005
-(Theory)
-Room: LT3
-Lecturer: GV007</t>
+          <t>MH006
+(Practice)
+Room: TH1
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>L01</t>
@@ -3750,39 +3657,25 @@
       <c r="C12" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>MH006
-(Practice)
-Room: TH2
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: TH2
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
-      <c r="I12" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: TH2
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="I12" s="7" t="inlineStr"/>
       <c r="J12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
@@ -3794,22 +3687,29 @@
         <v>30</v>
       </c>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F13" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
-      <c r="I13" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT4
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="I13" s="7" t="inlineStr"/>
       <c r="J13" s="7" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="9" t="n"/>
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>L01</t>
@@ -3818,21 +3718,21 @@
       <c r="C14" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT2
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>MH005
-(Practice)
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
 Room: TH2
-Lecturer: GV007</t>
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: TH2
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="G14" s="7" t="inlineStr"/>
@@ -3840,84 +3740,15 @@
       <c r="I14" s="7" t="inlineStr"/>
       <c r="J14" s="7" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>MH006
-(Practice)
-Room: TH1
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="F15" s="10" t="inlineStr">
-        <is>
-          <t>MH005
-(Practice)
-Room: TH3
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
-      <c r="I15" s="7" t="inlineStr"/>
-      <c r="J15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="9" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>L01</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: TH2
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="F16" s="7" t="inlineStr"/>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: TH2
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="J16" s="7" t="inlineStr"/>
-    </row>
-    <row r="17"/>
+    <row r="15"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3929,7 +3760,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4039,7 +3870,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -4051,14 +3882,21 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>MH006
-(Theory)
-Room: LT4
+          <t>MH005
+(Practice)
+Room: TH1
 Lecturer: GV002</t>
         </is>
       </c>
@@ -4068,7 +3906,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -4080,22 +3918,22 @@
         <v>30</v>
       </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="7" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: TH1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT3
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="9" t="n"/>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>L01</t>
@@ -4104,25 +3942,32 @@
       <c r="C10" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="D10" s="7" t="inlineStr"/>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: TH2
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: TH2
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -4135,12 +3980,12 @@
       </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="10" t="inlineStr">
-        <is>
-          <t>MH005
-(Practice)
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
 Room: TH1
-Lecturer: GV007</t>
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="G11" s="7" t="inlineStr"/>
@@ -4149,7 +3994,7 @@
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="9" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>L01</t>
@@ -4158,23 +4003,16 @@
       <c r="C12" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>MH006
-(Practice)
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
 Room: TH2
 Lecturer: GV002</t>
         </is>
       </c>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: TH2
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
       <c r="I12" s="7" t="inlineStr"/>
@@ -4183,7 +4021,7 @@
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
@@ -4198,26 +4036,19 @@
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: TH3
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="H13" s="7" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr">
         <is>
-          <t>MH005
-(Theory)
-Room: LT4
+          <t>MH006
+(Practice)
+Room: TH2
 Lecturer: GV002</t>
         </is>
       </c>
       <c r="J13" s="7" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="9" t="n"/>
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>L01</t>
@@ -4227,20 +4058,13 @@
         <v>35</v>
       </c>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT2
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>MH005
-(Practice)
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
 Room: TH2
-Lecturer: GV007</t>
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="G14" s="7" t="inlineStr"/>
@@ -4251,7 +4075,7 @@
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
@@ -4263,29 +4087,22 @@
         <v>30</v>
       </c>
       <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>MH006
-(Practice)
-Room: TH1
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
 Lecturer: GV002</t>
         </is>
       </c>
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: TH2
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="I15" s="7" t="inlineStr"/>
       <c r="J15" s="7" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="9" t="n"/>
+      <c r="A16" s="10" t="n"/>
       <c r="B16" s="7" t="inlineStr">
         <is>
           <t>L01</t>
@@ -4294,33 +4111,95 @@
       <c r="C16" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr">
-        <is>
-          <t>MH005
+      <c r="D16" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: TH2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>MH006
 (Theory)
 Room: LT2
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="F16" s="7" t="inlineStr"/>
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr">
-        <is>
-          <t>MH006
+      <c r="I16" s="7" t="inlineStr"/>
+      <c r="J16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: TH1
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="F17" s="9" t="inlineStr">
+        <is>
+          <t>MH005
 (Theory)
 Room: LT1
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="J16" s="7" t="inlineStr"/>
-    </row>
-    <row r="17"/>
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+      <c r="I17" s="7" t="inlineStr"/>
+      <c r="J17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>L01</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
+      <c r="I18" s="7" t="inlineStr"/>
+      <c r="J18" s="7" t="inlineStr"/>
+    </row>
+    <row r="19"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A3:J3"/>
@@ -4453,24 +4332,24 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: TH2
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
@@ -4490,103 +4369,103 @@
       </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: TH1
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT4
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: TH2
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT3
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: TH2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="8" t="inlineStr">
-        <is>
-          <t>MH005
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>MH006
 (Theory)
 Room: TH2
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="9" t="n"/>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>L01</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>MH006
-(Practice)
-Room: TH2
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="E12" s="7" t="inlineStr"/>
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
@@ -4608,22 +4487,29 @@
         <v>30</v>
       </c>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr">
         <is>
-          <t>MH005
-(Theory)
-Room: LT4
+          <t>MH006
+(Practice)
+Room: TH1
 Lecturer: GV002</t>
         </is>
       </c>
       <c r="J13" s="7" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="9" t="n"/>
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>L01</t>
@@ -4633,20 +4519,13 @@
         <v>35</v>
       </c>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="8" t="inlineStr">
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="9" t="inlineStr">
         <is>
           <t>MH006
 (Theory)
 Room: LT2
 Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>MH005
-(Practice)
-Room: TH2
-Lecturer: GV007</t>
         </is>
       </c>
       <c r="G14" s="7" t="inlineStr"/>
@@ -4669,20 +4548,20 @@
         <v>30</v>
       </c>
       <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>MH006
-(Practice)
-Room: TH1
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="F15" s="10" t="inlineStr">
-        <is>
-          <t>MH005
-(Practice)
-Room: TH3
-Lecturer: GV002</t>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F15" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
         </is>
       </c>
       <c r="G15" s="7" t="inlineStr"/>
@@ -4691,7 +4570,7 @@
       <c r="J15" s="7" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="9" t="n"/>
+      <c r="A16" s="10" t="n"/>
       <c r="B16" s="7" t="inlineStr">
         <is>
           <t>L01</t>
@@ -4700,26 +4579,19 @@
       <c r="C16" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
+      <c r="D16" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
 Room: TH2
-Lecturer: GV002</t>
-        </is>
-      </c>
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="E16" s="7" t="inlineStr"/>
       <c r="F16" s="7" t="inlineStr"/>
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT1
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="I16" s="7" t="inlineStr"/>
       <c r="J16" s="7" t="inlineStr"/>
     </row>
     <row r="17"/>
@@ -4727,11 +4599,11 @@
   <mergeCells count="7">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4866,21 +4738,21 @@
       </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: TH2
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: TH2
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="9" t="n"/>
+      <c r="A9" s="10" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>L01</t>
@@ -4891,17 +4763,17 @@
       </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: TH2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: TH2
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
@@ -4912,32 +4784,32 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT4
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="I10" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: TH2
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
@@ -4956,25 +4828,21 @@
       </c>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: TH1
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT3
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>L01</t>
@@ -4983,23 +4851,16 @@
       <c r="C12" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>MH006
-(Practice)
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
 Room: TH2
 Lecturer: GV002</t>
         </is>
       </c>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: TH2
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
       <c r="I12" s="7" t="inlineStr"/>
@@ -5020,22 +4881,36 @@
         <v>30</v>
       </c>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH1
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="I13" s="8" t="inlineStr">
         <is>
-          <t>MH005
-(Theory)
-Room: LT4
+          <t>MH006
+(Practice)
+Room: TH1
 Lecturer: GV002</t>
         </is>
       </c>
       <c r="J13" s="7" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="9" t="n"/>
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>L01</t>
@@ -5045,7 +4920,8 @@
         <v>35</v>
       </c>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="8" t="inlineStr">
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="9" t="inlineStr">
         <is>
           <t>MH006
 (Theory)
@@ -5053,422 +4929,6 @@
 Lecturer: GV002</t>
         </is>
       </c>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>MH005
-(Practice)
-Room: TH2
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
-      <c r="I14" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: TH2
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="J14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>MH006
-(Practice)
-Room: TH1
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="F15" s="10" t="inlineStr">
-        <is>
-          <t>MH005
-(Practice)
-Room: TH3
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: TH2
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="J15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="9" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>L01</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT2
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="F16" s="7" t="inlineStr"/>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT1
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="J16" s="7" t="inlineStr"/>
-    </row>
-    <row r="17"/>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A2:J2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="25" customWidth="1" min="7" max="7"/>
-    <col width="25" customWidth="1" min="8" max="8"/>
-    <col width="25" customWidth="1" min="9" max="9"/>
-    <col width="25" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>WEEK 8 TIMETABLE (11/05/2026 - 17/05/2026)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="40" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>Students</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>Monday
-11/05</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>Tuesday
-12/05</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>Wednesday
-13/05</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>Thursday
-14/05</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="inlineStr">
-        <is>
-          <t>Friday
-15/05</t>
-        </is>
-      </c>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>Saturday
-16/05</t>
-        </is>
-      </c>
-      <c r="J7" s="5" t="inlineStr">
-        <is>
-          <t>Sunday
-17/05</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: TH2
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="I8" s="7" t="inlineStr"/>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT4
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: TH1
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="9" t="n"/>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>L01</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: TH2
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: TH3
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="9" t="n"/>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>L01</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: TH2
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-      <c r="I12" s="7" t="inlineStr"/>
-      <c r="J12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
-      <c r="I13" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: TH3
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="J13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="9" t="n"/>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>L01</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D14" s="10" t="inlineStr">
-        <is>
-          <t>MH006
-(Practice)
-Room: TH2
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
       <c r="I14" s="7" t="inlineStr"/>
@@ -5477,7 +4937,7 @@
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
@@ -5489,22 +4949,29 @@
         <v>30</v>
       </c>
       <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="7" t="inlineStr"/>
-      <c r="F15" s="7" t="inlineStr"/>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F15" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT4
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="I15" s="7" t="inlineStr"/>
       <c r="J15" s="7" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="9" t="n"/>
+      <c r="A16" s="10" t="n"/>
       <c r="B16" s="7" t="inlineStr">
         <is>
           <t>L01</t>
@@ -5513,19 +4980,19 @@
       <c r="C16" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
+      <c r="D16" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
 Room: TH2
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="F16" s="10" t="inlineStr">
-        <is>
-          <t>MH005
-(Practice)
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
 Room: TH2
 Lecturer: GV007</t>
         </is>
@@ -5535,81 +5002,12 @@
       <c r="I16" s="7" t="inlineStr"/>
       <c r="J16" s="7" t="inlineStr"/>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B17" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C17" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D17" s="7" t="inlineStr"/>
-      <c r="E17" s="10" t="inlineStr">
-        <is>
-          <t>MH006
-(Practice)
-Room: TH1
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="F17" s="10" t="inlineStr">
-        <is>
-          <t>MH005
-(Practice)
-Room: TH3
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="G17" s="7" t="inlineStr"/>
-      <c r="H17" s="7" t="inlineStr"/>
-      <c r="I17" s="7" t="inlineStr"/>
-      <c r="J17" s="7" t="inlineStr"/>
-    </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="9" t="n"/>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>L01</t>
-        </is>
-      </c>
-      <c r="C18" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT2
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="F18" s="7" t="inlineStr"/>
-      <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="7" t="inlineStr"/>
-      <c r="I18" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT1
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="J18" s="7" t="inlineStr"/>
-    </row>
-    <row r="19"/>
+    <row r="17"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A15:A16"/>
@@ -5620,7 +5018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5670,7 +5068,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 9 TIMETABLE (18/05/2026 - 24/05/2026)</t>
+          <t>WEEK 8 TIMETABLE (11/05/2026 - 17/05/2026)</t>
         </is>
       </c>
     </row>
@@ -5693,43 +5091,43 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-18/05</t>
+11/05</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-19/05</t>
+12/05</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-20/05</t>
+13/05</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-21/05</t>
+14/05</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-22/05</t>
+15/05</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-23/05</t>
+16/05</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-24/05</t>
+17/05</t>
         </is>
       </c>
     </row>
@@ -5753,8 +5151,8 @@
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>MH006
-(Theory)
+          <t>MH005
+(Practice)
 Room: TH1
 Lecturer: GV002</t>
         </is>
@@ -5770,24 +5168,31 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT4
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="H9" s="7" t="inlineStr"/>
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
@@ -5806,51 +5211,51 @@
         <v>30</v>
       </c>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT3
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: TH1
 Lecturer: GV007</t>
         </is>
       </c>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>L01</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="10" t="inlineStr">
-        <is>
-          <t>MH005
-(Practice)
-Room: TH2
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
       <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>L01</t>
@@ -5859,16 +5264,16 @@
       <c r="C12" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>MH006
-(Practice)
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
 Room: TH2
 Lecturer: GV002</t>
         </is>
       </c>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
       <c r="I12" s="7" t="inlineStr"/>
@@ -5889,22 +5294,29 @@
         <v>30</v>
       </c>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr">
         <is>
-          <t>MH005
-(Theory)
-Room: LT4
+          <t>MH006
+(Practice)
+Room: TH1
 Lecturer: GV002</t>
         </is>
       </c>
       <c r="J13" s="7" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="9" t="n"/>
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>L01</t>
@@ -5913,8 +5325,16 @@
       <c r="C14" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="8" t="inlineStr">
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: TH2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="9" t="inlineStr">
         <is>
           <t>MH006
 (Theory)
@@ -5922,17 +5342,9 @@
 Lecturer: GV002</t>
         </is>
       </c>
-      <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
-      <c r="I14" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: TH2
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="I14" s="7" t="inlineStr"/>
       <c r="J14" s="7" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
@@ -5950,20 +5362,20 @@
         <v>30</v>
       </c>
       <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>MH006
-(Practice)
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F15" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
 Room: TH1
-Lecturer: GV002</t>
-        </is>
-      </c>
-      <c r="F15" s="10" t="inlineStr">
-        <is>
-          <t>MH005
-(Practice)
-Room: TH3
-Lecturer: GV002</t>
+Lecturer: GV007</t>
         </is>
       </c>
       <c r="G15" s="7" t="inlineStr"/>
@@ -5972,7 +5384,7 @@
       <c r="J15" s="7" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="9" t="n"/>
+      <c r="A16" s="10" t="n"/>
       <c r="B16" s="7" t="inlineStr">
         <is>
           <t>L01</t>
@@ -5981,26 +5393,26 @@
       <c r="C16" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT2
+      <c r="D16" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH2
 Lecturer: GV007</t>
         </is>
       </c>
-      <c r="F16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: TH2
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Theory)
-Room: LT1
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="I16" s="7" t="inlineStr"/>
       <c r="J16" s="7" t="inlineStr"/>
     </row>
     <row r="17"/>
@@ -6012,6 +5424,313 @@
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A11:A12"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>WEEK 9 TIMETABLE (18/05/2026 - 24/05/2026)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="40" customHeight="1">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Students</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Monday
+18/05</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>Tuesday
+19/05</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>Wednesday
+20/05</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>Thursday
+21/05</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>Friday
+22/05</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>Saturday
+23/05</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>Sunday
+24/05</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>L01</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: TH2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>L01</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: TH2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: TH2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="10" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>L01</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: LT2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>MH006
+(Theory)
+Room: TH1
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="10" t="n"/>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>L01</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="7" t="inlineStr"/>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A2:J2"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
